--- a/app/config/tables/Tea_houses_editable/forms/Tea_houses_editable/Tea_houses_editable.xlsx
+++ b/app/config/tables/Tea_houses_editable/forms/Tea_houses_editable/Tea_houses_editable.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-13" yWindow="3665" windowWidth="16678" windowHeight="8260" activeTab="3"/>
+    <workbookView xWindow="-13" yWindow="3665" windowWidth="16678" windowHeight="8260" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="77">
   <si>
     <t>type</t>
   </si>
@@ -72,12 +72,6 @@
     <t>select_one</t>
   </si>
   <si>
-    <t>display.hint</t>
-  </si>
-  <si>
-    <t>display.title</t>
-  </si>
-  <si>
     <t>survey</t>
   </si>
   <si>
@@ -256,12 +250,21 @@
   </si>
   <si>
     <t>["House_id","State","Region","District","Neighborhood","Specialty_Type_id","Name","Customers","Visits","Iced","Hot","WiFi","Location_latitude","Location_longitude","Location_altitude","Location_accuracy","Date_Opened","Owner","Phone_Number"]</t>
+  </si>
+  <si>
+    <t>display.title.text</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t>display.hint.text</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -517,6 +520,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -552,6 +572,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -730,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -746,37 +783,37 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
@@ -790,11 +827,11 @@
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H3" s="4"/>
     </row>
@@ -804,17 +841,17 @@
       </c>
       <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -824,10 +861,10 @@
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -841,11 +878,11 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H7" s="4"/>
     </row>
@@ -855,11 +892,11 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="4"/>
     </row>
@@ -869,11 +906,11 @@
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="4"/>
     </row>
@@ -883,18 +920,18 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -906,14 +943,14 @@
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
@@ -922,14 +959,14 @@
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
@@ -937,7 +974,7 @@
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -947,36 +984,36 @@
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -988,20 +1025,20 @@
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1015,11 +1052,11 @@
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H20" s="4"/>
     </row>
@@ -1029,11 +1066,11 @@
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H21" s="4"/>
     </row>
@@ -1043,11 +1080,11 @@
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H22" s="4"/>
     </row>
@@ -1059,11 +1096,11 @@
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H23" s="4"/>
     </row>
@@ -1075,11 +1112,11 @@
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H24" s="4"/>
     </row>
@@ -1091,18 +1128,18 @@
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1113,7 +1150,7 @@
     <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1127,11 +1164,11 @@
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H28" s="4"/>
     </row>
@@ -1141,32 +1178,32 @@
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H29" s="4"/>
     </row>
     <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H30" s="4"/>
     </row>
     <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1332,10 +1369,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1343,10 +1380,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1366,8 +1403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1385,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1393,7 +1430,7 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1406,27 +1443,27 @@
     </row>
     <row r="4" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1444,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -1455,13 +1492,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>0</v>
@@ -1472,19 +1509,19 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1559,23 +1596,23 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1583,10 +1620,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>

--- a/app/config/tables/Tea_houses_editable/forms/Tea_houses_editable/Tea_houses_editable.xlsx
+++ b/app/config/tables/Tea_houses_editable/forms/Tea_houses_editable/Tea_houses_editable.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\Tea_houses_editable\forms\Tea_houses_editable\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-13" yWindow="3665" windowWidth="16678" windowHeight="8260" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="3" r:id="rId2"/>
     <sheet name="settings" sheetId="4" r:id="rId3"/>
-    <sheet name="properties" sheetId="6" r:id="rId4"/>
-    <sheet name="model" sheetId="5" r:id="rId5"/>
+    <sheet name="model" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>type</t>
   </si>
@@ -234,28 +228,7 @@
     <t>TODO: enable saving with &lt;em&gt;assign Location_latitude data('lat')&lt;/em&gt; etc.</t>
   </si>
   <si>
-    <t>partition</t>
-  </si>
-  <si>
-    <t>aspect</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>default</t>
-  </si>
-  <si>
-    <t>colOrder</t>
-  </si>
-  <si>
-    <t>array</t>
-  </si>
-  <si>
-    <t>["House_id","State","Region","District","Neighborhood","Specialty_Type_id","Name","Customers","Visits","Iced","Hot","WiFi","Location_latitude","Location_longitude","Location_altitude","Location_accuracy","Date_Opened","Owner","Phone_Number"]</t>
+    <t>Store_Owner</t>
   </si>
 </sst>
 </file>
@@ -363,7 +336,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -381,7 +354,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -484,7 +456,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -519,7 +491,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -730,21 +702,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="16.875" customWidth="1"/>
-    <col min="4" max="4" width="9.125" customWidth="1"/>
-    <col min="5" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="41.875" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" customWidth="1"/>
+    <col min="5" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="41.83203125" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="14.875" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18" customHeight="1">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -773,7 +745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="18" customHeight="1">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>20</v>
@@ -784,7 +756,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="12.45" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
@@ -798,7 +770,7 @@
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="73" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="73" customHeight="1">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
@@ -811,7 +783,7 @@
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="18" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
         <v>24</v>
@@ -822,7 +794,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="18" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>51</v>
       </c>
@@ -835,7 +807,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="18" customHeight="1">
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
@@ -849,7 +821,7 @@
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="18" customHeight="1">
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
@@ -863,7 +835,7 @@
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="18" customHeight="1">
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
@@ -877,7 +849,7 @@
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
@@ -891,7 +863,7 @@
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
         <v>24</v>
@@ -902,7 +874,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s">
@@ -918,7 +890,7 @@
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="18" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" t="s">
@@ -934,7 +906,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
         <v>20</v>
@@ -945,7 +917,7 @@
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="18" customHeight="1">
       <c r="C15" s="4" t="s">
         <v>45</v>
       </c>
@@ -959,7 +931,7 @@
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="18" customHeight="1">
       <c r="C16" s="4" t="s">
         <v>45</v>
       </c>
@@ -973,7 +945,7 @@
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="18" customHeight="1">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
         <v>24</v>
@@ -984,7 +956,7 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="18" customHeight="1">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s">
@@ -998,7 +970,7 @@
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="18" customHeight="1">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
         <v>20</v>
@@ -1009,7 +981,7 @@
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="18" customHeight="1">
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
@@ -1023,7 +995,7 @@
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="18" customHeight="1">
       <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
@@ -1037,7 +1009,7 @@
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="18" customHeight="1">
       <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
@@ -1051,7 +1023,7 @@
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="18" customHeight="1">
       <c r="C23" s="4" t="s">
         <v>13</v>
       </c>
@@ -1067,7 +1039,7 @@
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="18" customHeight="1">
       <c r="C24" s="4" t="s">
         <v>13</v>
       </c>
@@ -1083,7 +1055,7 @@
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="18" customHeight="1">
       <c r="C25" s="4" t="s">
         <v>13</v>
       </c>
@@ -1099,7 +1071,7 @@
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="18" customHeight="1">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
         <v>24</v>
@@ -1110,7 +1082,7 @@
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="18" customHeight="1">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
         <v>20</v>
@@ -1121,13 +1093,13 @@
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="18" customHeight="1">
       <c r="C28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="5" t="s">
@@ -1135,7 +1107,7 @@
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="18" customHeight="1">
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
@@ -1149,7 +1121,7 @@
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="18" customHeight="1">
       <c r="C30" s="4" t="s">
         <v>42</v>
       </c>
@@ -1163,7 +1135,7 @@
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="18" customHeight="1">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
         <v>24</v>
@@ -1174,7 +1146,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="18" customHeight="1">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1182,7 +1154,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:8" ht="18" customHeight="1">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1190,7 +1162,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:8" ht="18" customHeight="1">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1198,7 +1170,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:8" ht="18" customHeight="1">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1206,7 +1178,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:8" ht="18" customHeight="1">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1214,7 +1186,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:8" ht="18" customHeight="1">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1222,7 +1194,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:8" ht="18" customHeight="1">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1230,7 +1202,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:8" ht="18" customHeight="1">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1238,7 +1210,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:8" ht="18" customHeight="1">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1246,7 +1218,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:8" ht="18" customHeight="1">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1254,7 +1226,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="3:8" ht="36.85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:8" ht="36.75" customHeight="1">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1262,7 +1234,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:8" ht="18" customHeight="1">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1270,23 +1242,23 @@
       <c r="G43" s="5"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="3:8" ht="62.55" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="3:8" ht="42.05" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="3:8" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:8" ht="18" customHeight="1"/>
+    <row r="45" spans="3:8" ht="18" customHeight="1"/>
+    <row r="46" spans="3:8" ht="62.5" customHeight="1"/>
+    <row r="47" spans="3:8" ht="42" customHeight="1"/>
+    <row r="48" spans="3:8" ht="40.75" customHeight="1">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="3:4" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:4" ht="35.5" customHeight="1">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="3:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:4" ht="34.25" customHeight="1">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="3:4" ht="18" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1306,14 +1278,14 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="18.125" customWidth="1"/>
-    <col min="3" max="3" width="11.625" customWidth="1"/>
-    <col min="4" max="4" width="16.125" customWidth="1"/>
+    <col min="1" max="2" width="18.1640625" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="22.25" customHeight="1">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -1327,7 +1299,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="22.25" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1338,7 +1310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="22.25" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1349,9 +1321,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:4" ht="22.25" customHeight="1"/>
+    <row r="5" spans="1:4" ht="22.25" customHeight="1"/>
+    <row r="6" spans="1:4" ht="22.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1370,14 +1342,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
@@ -1388,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1396,7 +1368,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1404,7 +1376,7 @@
         <v>20140204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>16</v>
       </c>
@@ -1413,7 +1385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="12.75" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>47</v>
       </c>
@@ -1421,7 +1393,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="12.75" customHeight="1">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -1442,116 +1414,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="5" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="9"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="9"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.875" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="15" customHeight="1">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1562,7 +1438,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>57</v>
       </c>
@@ -1570,7 +1446,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1581,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>61</v>
       </c>
@@ -1594,5 +1470,10 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/app/config/tables/Tea_houses_editable/forms/Tea_houses_editable/Tea_houses_editable.xlsx
+++ b/app/config/tables/Tea_houses_editable/forms/Tea_houses_editable/Tea_houses_editable.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\toolsuite\app-designer\app\config\tables\Tea_houses_editable\forms\Tea_houses_editable\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25606" windowHeight="16063" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="69">
   <si>
     <t>type</t>
   </si>
@@ -48,9 +53,6 @@
     <t>form_version</t>
   </si>
   <si>
-    <t>display.text</t>
-  </si>
-  <si>
     <t>setting_name</t>
   </si>
   <si>
@@ -60,9 +62,6 @@
     <t>data_value</t>
   </si>
   <si>
-    <t>display.image</t>
-  </si>
-  <si>
     <t>select_one</t>
   </si>
   <si>
@@ -232,12 +231,15 @@
   </si>
   <si>
     <t>Store_Owner</t>
+  </si>
+  <si>
+    <t>display.title.image</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -743,49 +745,49 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="16.83203125" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" customWidth="1"/>
-    <col min="5" max="6" width="18.1640625" customWidth="1"/>
-    <col min="7" max="7" width="41.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
+    <col min="4" max="4" width="9.125" customWidth="1"/>
+    <col min="5" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="41.875" customWidth="1"/>
     <col min="8" max="8" width="40" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" customHeight="1">
+    <row r="1" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1"/>
@@ -793,37 +795,37 @@
       <c r="G2" s="5"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="12">
+    <row r="3" spans="1:9" ht="12.45" x14ac:dyDescent="0.2">
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="1:9" ht="73" customHeight="1">
+    <row r="4" spans="1:9" ht="73" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1">
+    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -831,12 +833,12 @@
       <c r="G5" s="5"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1">
+    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -844,66 +846,66 @@
       <c r="G6" s="5"/>
       <c r="H6" s="4"/>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1">
+    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4"/>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
+    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
+    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H9" s="4"/>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1">
+    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C10" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H10" s="4"/>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
+    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -911,42 +913,42 @@
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
     </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1">
+    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1">
+    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
+    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4"/>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -954,38 +956,38 @@
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1">
+    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1">
+    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="1:8" ht="18" customHeight="1">
+    <row r="17" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -993,24 +995,24 @@
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
     </row>
-    <row r="18" spans="1:8" ht="18" customHeight="1">
+    <row r="18" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
       <c r="G18" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="18" customHeight="1">
+    <row r="19" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -1018,100 +1020,100 @@
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="1:8" ht="18" customHeight="1">
+    <row r="20" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H20" s="4"/>
     </row>
-    <row r="21" spans="1:8" ht="18" customHeight="1">
+    <row r="21" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="1:8" ht="18" customHeight="1">
+    <row r="22" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="1:8" ht="18" customHeight="1">
+    <row r="23" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F23" s="4"/>
       <c r="G23" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="1:8" ht="18" customHeight="1">
+    <row r="24" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="4"/>
       <c r="G24" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="1:8" ht="18" customHeight="1">
+    <row r="25" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F25" s="4"/>
       <c r="G25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="1:8" ht="18" customHeight="1">
+    <row r="26" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
@@ -1119,10 +1121,10 @@
       <c r="G26" s="5"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="18" customHeight="1">
+    <row r="27" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
@@ -1130,52 +1132,52 @@
       <c r="G27" s="5"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="1:8" ht="18" customHeight="1">
+    <row r="28" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D28" s="4"/>
       <c r="E28" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="1:8" ht="18" customHeight="1">
+    <row r="29" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F29" s="4"/>
       <c r="G29" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" spans="1:8" ht="18" customHeight="1">
+    <row r="30" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F30" s="4"/>
       <c r="G30" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H30" s="4"/>
     </row>
-    <row r="31" spans="1:8" ht="18" customHeight="1">
+    <row r="31" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -1183,7 +1185,7 @@
       <c r="G31" s="5"/>
       <c r="H31" s="4"/>
     </row>
-    <row r="32" spans="1:8" ht="18" customHeight="1">
+    <row r="32" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -1191,7 +1193,7 @@
       <c r="G32" s="5"/>
       <c r="H32" s="4"/>
     </row>
-    <row r="33" spans="3:8" ht="18" customHeight="1">
+    <row r="33" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1199,7 +1201,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="4"/>
     </row>
-    <row r="34" spans="3:8" ht="18" customHeight="1">
+    <row r="34" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -1207,7 +1209,7 @@
       <c r="G34" s="5"/>
       <c r="H34" s="4"/>
     </row>
-    <row r="35" spans="3:8" ht="18" customHeight="1">
+    <row r="35" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -1215,7 +1217,7 @@
       <c r="G35" s="5"/>
       <c r="H35" s="4"/>
     </row>
-    <row r="36" spans="3:8" ht="18" customHeight="1">
+    <row r="36" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -1223,7 +1225,7 @@
       <c r="G36" s="5"/>
       <c r="H36" s="4"/>
     </row>
-    <row r="37" spans="3:8" ht="18" customHeight="1">
+    <row r="37" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -1231,7 +1233,7 @@
       <c r="G37" s="5"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" spans="3:8" ht="18" customHeight="1">
+    <row r="38" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -1239,7 +1241,7 @@
       <c r="G38" s="5"/>
       <c r="H38" s="4"/>
     </row>
-    <row r="39" spans="3:8" ht="18" customHeight="1">
+    <row r="39" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -1247,7 +1249,7 @@
       <c r="G39" s="5"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="3:8" ht="18" customHeight="1">
+    <row r="40" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -1255,7 +1257,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="4"/>
     </row>
-    <row r="41" spans="3:8" ht="18" customHeight="1">
+    <row r="41" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -1263,7 +1265,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="4"/>
     </row>
-    <row r="42" spans="3:8" ht="36.75" customHeight="1">
+    <row r="42" spans="3:8" ht="36.85" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -1271,7 +1273,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="1"/>
     </row>
-    <row r="43" spans="3:8" ht="18" customHeight="1">
+    <row r="43" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -1279,23 +1281,23 @@
       <c r="G43" s="5"/>
       <c r="H43" s="1"/>
     </row>
-    <row r="44" spans="3:8" ht="18" customHeight="1"/>
-    <row r="45" spans="3:8" ht="18" customHeight="1"/>
-    <row r="46" spans="3:8" ht="62.5" customHeight="1"/>
-    <row r="47" spans="3:8" ht="42" customHeight="1"/>
-    <row r="48" spans="3:8" ht="40.75" customHeight="1">
+    <row r="44" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:8" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:8" ht="62.55" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:8" ht="42.05" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:8" ht="40.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" spans="3:4" ht="35.5" customHeight="1">
+    <row r="49" spans="3:4" ht="35.549999999999997" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" spans="3:4" ht="34.25" customHeight="1">
+    <row r="50" spans="3:4" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" spans="3:4" ht="18" customHeight="1"/>
+    <row r="51" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1311,56 +1313,56 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="18.1640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" customWidth="1"/>
+    <col min="1" max="2" width="18.125" customWidth="1"/>
+    <col min="3" max="3" width="19.625" customWidth="1"/>
+    <col min="4" max="4" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.25" customHeight="1">
+    <row r="1" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="D1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="22.25" customHeight="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="22.25" customHeight="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="22.25" customHeight="1"/>
-    <row r="5" spans="1:4" ht="22.25" customHeight="1"/>
-    <row r="6" spans="1:4" ht="22.25" customHeight="1"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1379,33 +1381,33 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="12.8" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1">
+    <row r="1" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1413,29 +1415,29 @@
         <v>20140204</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1">
+    <row r="4" spans="1:3" ht="18.850000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" customHeight="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12.8" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" customHeight="1">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1453,18 +1455,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.45" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.875" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" customHeight="1">
+    <row r="1" spans="1:3" ht="15.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1472,34 +1474,34 @@
         <v>0</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" t="s">
-        <v>57</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
